--- a/docs/timesheet_brent_de_roeck.xlsx
+++ b/docs/timesheet_brent_de_roeck.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\GDM\NWDAD II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roeck\Documents\School\schooljaar 2016-17\Semester 1\NMDAD-1\Beegreen.local\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19188" windowHeight="6708"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet Brent De Roeck" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>25.11.2016</t>
+  </si>
+  <si>
+    <t>Discover-page laadprobleem oplossen</t>
   </si>
 </sst>
 </file>
@@ -578,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="D23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,25 +1054,29 @@
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.5">
+      <c r="C28" s="3"/>
+      <c r="D28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="7">
-        <f>SUM(E3:E27)</f>
-        <v>103.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" ht="23.4" x14ac:dyDescent="0.5">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="7">
+        <f>SUM(E3:E28)</f>
+        <v>105.5</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
@@ -1233,18 +1240,25 @@
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="23.4" x14ac:dyDescent="0.5">
-      <c r="E57" s="7"/>
-    </row>
-    <row r="59" spans="1:5" ht="23.4" x14ac:dyDescent="0.5">
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" ht="23.4" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="E58" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="E61" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
